--- a/Server/ml/result.xlsx
+++ b/Server/ml/result.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807CF85E-7425-4418-8912-8983630483E3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E278D44-57E5-4F2F-AA6A-2A3AB69D6EA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>train_acc</t>
   </si>
@@ -117,11 +117,58 @@
     <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">LogisticRegression </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(random_state=1,solver='newton-cg')</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">LogisticRegression </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(random_state=1,solver='liblinear')</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -286,9 +333,6 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -298,23 +342,38 @@
     <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="181" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -609,7 +668,8 @@
     <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
@@ -677,39 +737,39 @@
       <c r="C3" s="4">
         <v>0.92500000000000004</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>0.1462</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="8">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>0.22539999999999999</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="8">
         <v>0.10879999999999999</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="8">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="8">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="8">
         <v>0.13669999999999999</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="8">
         <v>0.1472</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0.98299999999999998</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.9</v>
       </c>
       <c r="D4" s="9">
@@ -747,39 +807,39 @@
       <c r="C5" s="4">
         <v>0.83750000000000002</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="8">
         <v>0.15049999999999999</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="8">
         <v>0.15590000000000001</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="8">
         <v>0.19869999999999999</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="8">
         <v>0.11550000000000001</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="8">
         <v>6.59E-2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="8">
         <v>9.0230000000000005E-2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="8">
         <v>9.4079999999999997E-2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="8">
         <v>0.12920000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>0.875</v>
       </c>
       <c r="D6" s="9">
@@ -805,6 +865,76 @@
       </c>
       <c r="K6" s="9">
         <v>0.10349999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.85624999999999996</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="D7" s="18">
+        <v>-0.32685811251685598</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0.14177682705080299</v>
+      </c>
+      <c r="F7" s="18">
+        <v>-3.7815232744076703E-4</v>
+      </c>
+      <c r="G7" s="18">
+        <v>2.4709568821991799E-3</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1.11835118446168</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1.01975836152374</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1.39067096189104</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1.0292454165249201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="16">
+        <v>0.85624999999999996</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0.85</v>
+      </c>
+      <c r="D8" s="18">
+        <v>-0.813329289964837</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.106903629182255</v>
+      </c>
+      <c r="F8" s="18">
+        <v>-3.8567997609466001E-4</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1.7440823601166701E-3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1.0495659312496199</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0.93264772076994695</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1.26932841457103</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0.99254322646996695</v>
       </c>
     </row>
   </sheetData>

--- a/Server/ml/result.xlsx
+++ b/Server/ml/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E278D44-57E5-4F2F-AA6A-2A3AB69D6EA7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D277DB43-49B8-4C6D-A53A-3C7C6E1D2465}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>train_acc</t>
   </si>
@@ -161,13 +161,28 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">XGBClassifier </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(n_estimators=81, max_depth=2)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -321,15 +336,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -339,14 +351,20 @@
     <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -361,18 +379,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -678,30 +684,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
@@ -734,206 +740,241 @@
       <c r="B3" s="3">
         <v>0.94</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.92500000000000004</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>0.1462</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>6.6400000000000001E-2</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>0.22539999999999999</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>0.10879999999999999</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="6">
         <v>0.13669999999999999</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="6">
         <v>0.1472</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0.98299999999999998</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>0.9</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>0.12820000000000001</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="7">
         <v>0.17949999999999999</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>0.2051</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>0.23080000000000001</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>0.1026</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="7">
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.98299999999999998</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.83750000000000002</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.15049999999999999</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.15590000000000001</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.19869999999999999</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.11550000000000001</v>
-      </c>
-      <c r="H5" s="8">
-        <v>6.59E-2</v>
-      </c>
-      <c r="I5" s="8">
-        <v>9.0230000000000005E-2</v>
-      </c>
-      <c r="J5" s="8">
-        <v>9.4079999999999997E-2</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0.12920000000000001</v>
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="D5" s="7">
+        <v>9.6764939999999994E-2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6.9449079999999996E-2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.10951447</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.12966675</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.19525635</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.11433239000000001</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.2365882</v>
+      </c>
+      <c r="K5" s="7">
+        <v>4.8427810000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.875</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.1129</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0.12130000000000001</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0.15290000000000001</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.1084</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0.1074</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0.10580000000000001</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0.18759999999999999</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0.10349999999999999</v>
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.15590000000000001</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.19869999999999999</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.11550000000000001</v>
+      </c>
+      <c r="H6" s="6">
+        <v>6.59E-2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>9.0230000000000005E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>9.4079999999999997E-2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.12920000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="16">
-        <v>0.85624999999999996</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0.85</v>
-      </c>
-      <c r="D7" s="18">
-        <v>-0.32685811251685598</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.14177682705080299</v>
-      </c>
-      <c r="F7" s="18">
-        <v>-3.7815232744076703E-4</v>
-      </c>
-      <c r="G7" s="18">
-        <v>2.4709568821991799E-3</v>
-      </c>
-      <c r="H7" s="18">
-        <v>1.11835118446168</v>
-      </c>
-      <c r="I7" s="18">
-        <v>1.01975836152374</v>
-      </c>
-      <c r="J7" s="18">
-        <v>1.39067096189104</v>
-      </c>
-      <c r="K7" s="18">
-        <v>1.0292454165249201</v>
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.1129</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.12130000000000001</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.15290000000000001</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.1084</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.1074</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.18759999999999999</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.10349999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.85624999999999996</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="D8" s="10">
+        <v>-0.32685811251685598</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.14177682705080299</v>
+      </c>
+      <c r="F8" s="10">
+        <v>-3.7815232744076703E-4</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2.4709568821991799E-3</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1.11835118446168</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1.01975836152374</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1.39067096189104</v>
+      </c>
+      <c r="K8" s="10">
+        <v>1.0292454165249201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B9" s="9">
         <v>0.85624999999999996</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C9" s="9">
         <v>0.85</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D9" s="10">
         <v>-0.813329289964837</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E9" s="10">
         <v>0.106903629182255</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F9" s="10">
         <v>-3.8567997609466001E-4</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G9" s="10">
         <v>1.7440823601166701E-3</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H9" s="10">
         <v>1.0495659312496199</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I9" s="10">
         <v>0.93264772076994695</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J9" s="10">
         <v>1.26932841457103</v>
       </c>
-      <c r="K8" s="18">
+      <c r="K9" s="10">
         <v>0.99254322646996695</v>
       </c>
     </row>
